--- a/Board/bom/cbm_ultipet_v1-mouser.xlsx
+++ b/Board/bom/cbm_ultipet_v1-mouser.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="727">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -55,6 +55,459 @@
     <t xml:space="preserve">Alt. Manufac. Part</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">JLCPCB Part #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U$19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TQFP144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XC6SLX9-TQG144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217-XC6SLX9-2TQG144C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XC6SLX9-2TQG144C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C415799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQFP-32_5x5mm_P0.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX3421E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700-MAX3421EEHJT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX3421EEHJ+T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2651881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICRO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRLML5203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">942-IRLML5203TRPBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRLML5203TRPBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP48X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579-MCP4802-E/SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP4802-E/SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C144363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U$13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSOP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP79510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579-MCP79510-I/MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP79510-I/MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C636437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSSOP-20_4.4x6.5mm_P0.65mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCF9564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771-PCA9564PW118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA9564PW,118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C40,C29,C30,C39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-C0603C180K4HACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C180K4HACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C152921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2, C11,C12,C13, C15,C16,C17,C18,C19, C22, C23, C25,C26,C27, C31,C32,C33,C34,C35, C41,C42,C43,C44,C45,C46,C47,C48, C58, C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113, C146, C147, C150,C7,C8,C63,C85,C127,C128,C152,C155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-885012206020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">885012206020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5,C67,C68,C69,C70,C71,C64,C65,C66,C154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187-CL21A226MPQNNNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL21A226MPQNNNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1,C4,C14,C24,C49,C54,C55,C56,C57,C120,C121,C123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-C0603X105J8R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603X105J8RACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C309479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74ahct1g08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-74AHCT1G08DBVRG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74AHCT1G08DBVRG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C113521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74LVC1G04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-SN74LVC1G04DBVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74LVC1G04DBVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7434171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC5,IC2,IC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO20W@1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74245DW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-SN74HCT245DWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74HCT245DWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C132267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO24L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74LVC8T245SO24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-SN74LVC4245ADW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74LVC4245ADW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2677625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC19,IC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74244DW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-SN74HCT244DWRG4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74HCT244DWRG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5,U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIC-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4053B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-CD4053BNSR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4053BNSR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7414D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-SN74LV14ADR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74LV14ADR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C133541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7406D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-SN74LVC06ADR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74LVC06ADR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74138D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771-74LVC138AD-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74LVC138AD,118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO14@1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74125D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-SN74LVC125AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74LVC125AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U$16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSOP-8-FIXED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2132BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">621-AP2132BMP1.2TRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2132BMP-1.2TRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C338874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U$3,U$17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDI1117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">637-LDI1117-3.3H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDI1117-3.3H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U$14,U$6,U$10,U$5,U$8,U$11,U$15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESDBIDIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771-PESD5V0L1BA-T/R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESD5V0L1BA,115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2687118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC1,IC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOP32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMSOCK32TO512KSOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">870-61C5128AS-25QLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS61C5128AS-25QLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin header</t>
+  </si>
+  <si>
     <t xml:space="preserve">P2</t>
   </si>
   <si>
@@ -157,7 +610,7 @@
     <t xml:space="preserve">FLAT10BOX</t>
   </si>
   <si>
-    <t xml:space="preserve">XILINXPROG</t>
+    <t xml:space="preserve">XILINXPROG (optional)</t>
   </si>
   <si>
     <t xml:space="preserve">J8</t>
@@ -175,6 +628,12 @@
     <t xml:space="preserve">JP3Q</t>
   </si>
   <si>
+    <t xml:space="preserve">P11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
     <t xml:space="preserve">649-1012938192001BLF</t>
   </si>
   <si>
@@ -214,21 +673,6 @@
     <t xml:space="preserve">Solder-Jumper, no part</t>
   </si>
   <si>
-    <t xml:space="preserve">C40,C29,C30,C39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-C0603C180K4HACTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0603C180K4HACTU</t>
-  </si>
-  <si>
     <t xml:space="preserve">C114</t>
   </si>
   <si>
@@ -265,18 +709,6 @@
     <t xml:space="preserve">0.01u</t>
   </si>
   <si>
-    <t xml:space="preserve">C23,C22,C106,C11,C26,C108,C58,C31,C113,C13,C107,C44,C101,C34,C32,C12,C21,C48,C45,C43,C47,C104,C19,C41,C24,C17,C150,C35,C33,C146,C27,C42,C147,C46,C25,C15,C16,C18,C102,C110,C2,C103,C109,C100,C112,C105,C111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710-885012206020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">885012206020</t>
-  </si>
-  <si>
     <t xml:space="preserve">C126</t>
   </si>
   <si>
@@ -292,15 +724,12 @@
     <t xml:space="preserve">FA26X7R1H474KNU06</t>
   </si>
   <si>
-    <t xml:space="preserve">C7,C128,C8,C127,C85,C63</t>
+    <t xml:space="preserve">C138,C94,C133,C143,C124,C134,C137,C144,C131,C139,C141,C93,C92,C84,C135,C142,C73,C132,C145</t>
   </si>
   <si>
     <t xml:space="preserve">100n</t>
   </si>
   <si>
-    <t xml:space="preserve">C138,C94,C133,C143,C124,C134,C137,C144,C131,C139,C141,C93,C92,C84,C135,C142,C73,C132,C145</t>
-  </si>
-  <si>
     <t xml:space="preserve">594-K104K10X7RF53L2</t>
   </si>
   <si>
@@ -313,7 +742,7 @@
     <t xml:space="preserve">K104K15X7RF53H5</t>
   </si>
   <si>
-    <t xml:space="preserve">C74,C75,C3,C77,C36,C76,C59,C62,C20,C50,C28,C10,C51,C52,C37,C53,C60</t>
+    <t xml:space="preserve">C74,C3,C77,C36,C76,C59,C62,C20,C50,C28,C10,C51,C52,C37,C53,C60</t>
   </si>
   <si>
     <t xml:space="preserve">C86,C90,C91,C87</t>
@@ -322,25 +751,25 @@
     <t xml:space="preserve">E2,5-6</t>
   </si>
   <si>
-    <t xml:space="preserve">1u</t>
-  </si>
-  <si>
     <t xml:space="preserve">710-860020672005 </t>
   </si>
   <si>
     <t xml:space="preserve">860020672005</t>
   </si>
   <si>
-    <t xml:space="preserve">C14,C4,C56,C49,C1,C54,C120,C55,C57,C121,C123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-C0603X105J8R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0603X105J8RACTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C151,C61,C6</t>
+    <t xml:space="preserve">C158,C159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP_Radial_D5.0mm_P2.50mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-860010372006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C151,C61,C6,C153</t>
   </si>
   <si>
     <t xml:space="preserve">47u</t>
@@ -352,42 +781,70 @@
     <t xml:space="preserve">860010372004</t>
   </si>
   <si>
-    <t xml:space="preserve">C70,C5,C66,C65,C67,C69,C71,C64,C68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187-CL21A226MPQNNNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL21A226MPQNNNE</t>
+    <t xml:space="preserve">C156,C157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_Disc_D5.0mm_W2.5mm_P5.00mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810-FG28X5R1E106MR06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG28X5R1E106MRT06</t>
   </si>
   <si>
     <t xml:space="preserve">C81,C79,C78,C80</t>
   </si>
   <si>
+    <t xml:space="preserve">22000 (only if real SIDs)</t>
+  </si>
+  <si>
     <t xml:space="preserve">594-K222K15X7RF5TH5</t>
   </si>
   <si>
     <t xml:space="preserve">K222K15X7RF5TH5</t>
   </si>
   <si>
-    <t xml:space="preserve">C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0u Cer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C117,C96,C95,C136,C129,C116,C118,C115</t>
+    <t xml:space="preserve">C129,C136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1u MLCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810-FG28X5R1H105KRT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG28X5R1H105KRT00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C117,C96,C95,C116,C118,C115</t>
   </si>
   <si>
     <t xml:space="preserve">E2-5</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (note: alternatively mlcc?)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">710-860020672005</t>
   </si>
   <si>
@@ -409,9 +866,6 @@
     <t xml:space="preserve">E2-4</t>
   </si>
   <si>
-    <t xml:space="preserve">10u</t>
-  </si>
-  <si>
     <t xml:space="preserve">710-860020372001</t>
   </si>
   <si>
@@ -430,19 +884,13 @@
     <t xml:space="preserve">860010372002</t>
   </si>
   <si>
-    <t xml:space="preserve">C72,C140</t>
+    <t xml:space="preserve">C72,C75,C140</t>
   </si>
   <si>
     <t xml:space="preserve">E2,5-7</t>
   </si>
   <si>
-    <t xml:space="preserve">C97,C98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710-860010372006</t>
+    <t xml:space="preserve">C97,C98,C9,C21</t>
   </si>
   <si>
     <t xml:space="preserve">667-EEU-FM1E101</t>
@@ -598,7 +1046,7 @@
     <t xml:space="preserve">MF1/4LCT52R680G</t>
   </si>
   <si>
-    <t xml:space="preserve">R28,R31</t>
+    <t xml:space="preserve">R28,R31,R26</t>
   </si>
   <si>
     <t xml:space="preserve">603-MFR-12FTF52-100R </t>
@@ -628,7 +1076,7 @@
     <t xml:space="preserve">MFR-12FTF52-330R</t>
   </si>
   <si>
-    <t xml:space="preserve">R22</t>
+    <t xml:space="preserve">R17,R22</t>
   </si>
   <si>
     <t xml:space="preserve">756-MFR3-390RFC</t>
@@ -643,7 +1091,7 @@
     <t xml:space="preserve">MFR-25FBF52-390R</t>
   </si>
   <si>
-    <t xml:space="preserve">R55,R67,R3,R21,R59,R63</t>
+    <t xml:space="preserve">R55,R67,R21,R32,R59,R63</t>
   </si>
   <si>
     <t xml:space="preserve">708-RNF14FTD470R</t>
@@ -718,7 +1166,7 @@
     <t xml:space="preserve">MFR-12FTF52-2K2</t>
   </si>
   <si>
-    <t xml:space="preserve">R25</t>
+    <t xml:space="preserve">R25,R3,R27</t>
   </si>
   <si>
     <t xml:space="preserve">4k7</t>
@@ -769,7 +1217,7 @@
     <t xml:space="preserve">R78</t>
   </si>
   <si>
-    <t xml:space="preserve">R74,R75</t>
+    <t xml:space="preserve">R5,R12,R74,R75</t>
   </si>
   <si>
     <t xml:space="preserve">R76</t>
@@ -811,18 +1259,28 @@
     <t xml:space="preserve">MFR3-100KFC</t>
   </si>
   <si>
-    <t xml:space="preserve">R62,R58,R54,R66</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">R62,R58,R54,R66,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R60,R52,R56,R64</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">R79,R77,R80</t>
   </si>
   <si>
-    <t xml:space="preserve">R60,R52,R56,R64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100K</t>
-  </si>
-  <si>
     <t xml:space="preserve">R57,R65,R53,R61</t>
   </si>
   <si>
@@ -940,19 +1398,19 @@
     <t xml:space="preserve">SN74HCT14N</t>
   </si>
   <si>
-    <t xml:space="preserve">U$16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSOP-8-FIXED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP2132BB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">621-AP2132BMP1.2TRG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP2132BMP-1.2TRG1</t>
+    <t xml:space="preserve">IC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLCC44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL16C255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-TL16C2552FNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL16C2552FNR</t>
   </si>
   <si>
     <t xml:space="preserve">IC21</t>
@@ -1033,81 +1491,6 @@
     <t xml:space="preserve">SID</t>
   </si>
   <si>
-    <t xml:space="preserve">U5,U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSSOP-16_4.4x5mm_P0.65mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4053B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78-DG4053EEQ-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG4053EEQ-T1-GE3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7406D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">595-SN74LVC06ADR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN74LVC06ADR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOIC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP48X2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">579-MCP4802-E/SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP4802-E/SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC1,IC10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOP32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMSOCK32TO512KSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">870-61C5128AS-25QLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS61C5128AS-25QLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC19,IC13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO20W@1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74244DW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">595-SN74HCT244DWRG4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN74HCT244DWRG4</t>
-  </si>
-  <si>
     <t xml:space="preserve">U$21,U$20</t>
   </si>
   <si>
@@ -1123,51 +1506,6 @@
     <t xml:space="preserve">SN74LS641-1N</t>
   </si>
   <si>
-    <t xml:space="preserve">IC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PQFP-32_5x5mm_P0.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX3421E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700-MAX3421EEHJT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX3421EEHJ+T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSSOP-20_4.4x6.5mm_P0.65mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCF9564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771-PCA9564PW118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCA9564PW,118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO14@1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74125D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">595-SN74LVC125AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN74LVC125AD</t>
-  </si>
-  <si>
     <t xml:space="preserve">IC23</t>
   </si>
   <si>
@@ -1180,36 +1518,6 @@
     <t xml:space="preserve">CD74HCT86EE4</t>
   </si>
   <si>
-    <t xml:space="preserve">U$19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TQFP144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XC6SLX9-TQG144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217-XC6SLX9-2TQG144C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XC6SLX9-2TQG144C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO24L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74LVC8T245SO24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">595-SN74LVC4245ADW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN74LVC4245ADW </t>
-  </si>
-  <si>
     <t xml:space="preserve">IC31,IC32</t>
   </si>
   <si>
@@ -1237,18 +1545,6 @@
     <t xml:space="preserve">W65C22N6TPG-14</t>
   </si>
   <si>
-    <t xml:space="preserve">IC5,IC2,IC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74245DW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">595-SN74HCT245DWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN74HCT245DWR</t>
-  </si>
-  <si>
     <t xml:space="preserve">IC29</t>
   </si>
   <si>
@@ -1291,36 +1587,6 @@
     <t xml:space="preserve">SN74LS06N</t>
   </si>
   <si>
-    <t xml:space="preserve">IC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74138D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771-74LVC138AD-T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74LVC138AD,118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-23-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74LVC1G04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">595-SN74LVC1G04DBVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN74LVC1G04DBVR</t>
-  </si>
-  <si>
     <t xml:space="preserve">U2</t>
   </si>
   <si>
@@ -1336,21 +1602,6 @@
     <t xml:space="preserve">CD74HCT164E</t>
   </si>
   <si>
-    <t xml:space="preserve">U$3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDI1117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">637-LDI1117-3.3H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDI1117-3.3H</t>
-  </si>
-  <si>
     <t xml:space="preserve">IC22</t>
   </si>
   <si>
@@ -1369,9 +1620,6 @@
     <t xml:space="preserve">74HCT00</t>
   </si>
   <si>
-    <t xml:space="preserve">IC6</t>
-  </si>
-  <si>
     <t xml:space="preserve">TQFP-48_7x7mm_P0.5mm</t>
   </si>
   <si>
@@ -1447,9 +1695,6 @@
     <t xml:space="preserve">U$1</t>
   </si>
   <si>
-    <t xml:space="preserve">PLCC44</t>
-  </si>
-  <si>
     <t xml:space="preserve">W65C816SPLCC</t>
   </si>
   <si>
@@ -1477,48 +1722,6 @@
     <t xml:space="preserve">SN74LS145NE4</t>
   </si>
   <si>
-    <t xml:space="preserve">U$13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSOP10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP79510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">579-MCP79510-I/MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP79510-I/MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICRO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRLML5203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">942-IRLML5203TRPBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRLML5203TRPBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7414D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">595-SN74LV14ADR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN74LV14ADR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Socket 40 pin</t>
   </si>
   <si>
@@ -1744,6 +1947,9 @@
     <t xml:space="preserve">CSABUSSOCK180</t>
   </si>
   <si>
+    <t xml:space="preserve">CSABUSSOCK180 (optional)</t>
+  </si>
+  <si>
     <t xml:space="preserve">617-09-03-264-6824</t>
   </si>
   <si>
@@ -1759,19 +1965,31 @@
     <t xml:space="preserve">LED3MM</t>
   </si>
   <si>
+    <t xml:space="preserve">LED3MM (Green – power)</t>
+  </si>
+  <si>
     <t xml:space="preserve">696-SSL-LX305F4GD </t>
   </si>
   <si>
     <t xml:space="preserve">SSL-LX305F4GD</t>
   </si>
   <si>
-    <t xml:space="preserve">D29,D18,D30,D27,D28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO35-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1N4148DO35-10</t>
+    <t xml:space="preserve">LED3MM (Red – shift lock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-151033RS03000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151033RS03000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D19, D20, D21, D22, D23, D24, D25, D26, D5, D6, D8, D18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO35-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1N4148DO35-7</t>
   </si>
   <si>
     <t xml:space="preserve">78-1N4148</t>
@@ -1786,34 +2004,19 @@
     <t xml:space="preserve">1N4148</t>
   </si>
   <si>
-    <t xml:space="preserve">D5,D6,D8,D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D20,D3,D14,D9,D23,D22,D1,D26,D19,D21,D2,D4,D7,D25,D24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO35-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1N4148DO35-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U$14,U$6,U$10,U$5,U$8,U$11,U$15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOD323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESDBIDIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">771-PESD5V0L1BA-T/R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PESD5V0L1BA,115</t>
+    <t xml:space="preserve">D1, D2, D3, D4, D7, D10, D12, D14, D15, D16, D17, D27, D28, D29, D30, D31, D32, D33, D34, D35, D36, D37, D38, D39, D40, D41, D42, D43, D44, D45, D46, D47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_DO-35_SOD27_P7.62mm_Horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1N4448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-1N4448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1N4448TR</t>
   </si>
   <si>
     <t xml:space="preserve">D11</t>
@@ -1867,6 +2070,9 @@
     <t xml:space="preserve">SW_E-Switch-400-combined</t>
   </si>
   <si>
+    <t xml:space="preserve">Alternatively use C64 replacement switch</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 612-400MSP1R1BLKM7QE </t>
   </si>
   <si>
@@ -1987,6 +2193,9 @@
     <t xml:space="preserve">ETHOLIENC</t>
   </si>
   <si>
+    <t xml:space="preserve">ETHOLIENC (optional)</t>
+  </si>
+  <si>
     <t xml:space="preserve">909-ENC28J60-H </t>
   </si>
   <si>
@@ -2011,7 +2220,7 @@
     <t xml:space="preserve">PIEZOBEEPER</t>
   </si>
   <si>
-    <t xml:space="preserve">PIEZOBEEPERPIEZO</t>
+    <t xml:space="preserve">PIEZOBEEPERPIEZO (optional)</t>
   </si>
   <si>
     <t xml:space="preserve">253-AE2038E4WA</t>
@@ -2036,6 +2245,27 @@
   </si>
   <si>
     <t xml:space="preserve">BCS-106-F-D-TE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 54 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710-830207670409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-CDS-27204-L100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDS-27204-L100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179-CMS32143724SPX8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMS-321437-24SP-X8</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2276,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2067,6 +2297,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2154,7 +2389,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2179,7 +2414,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2187,19 +2422,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2207,20 +2446,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2406,10 +2649,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L186"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H197" activeCellId="0" sqref="H197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2421,13 +2664,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="1" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2461,12 +2705,19 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2478,13 +2729,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -2493,18 +2744,27 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -2513,266 +2773,419 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E8" s="0"/>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>35</v>
+        <v>68</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>40</v>
+        <v>79</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>40</v>
+        <v>85</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>48</v>
+        <v>100</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -2781,3736 +3194,3785 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>52</v>
+        <v>113</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>57</v>
+        <v>125</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>57</v>
+        <v>131</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>62</v>
+        <v>141</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="I25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="B26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2" t="n">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>130</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="D29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D37" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="F38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F40" s="1" t="n">
-        <v>22000</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="D44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H44" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="9" t="n">
-        <v>860010372006</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I51" s="6" t="n">
-        <v>744115</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>162</v>
+        <v>214</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>166</v>
+        <v>214</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>170</v>
+        <v>220</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>175</v>
+        <v>226</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>180</v>
+        <v>66</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>10</v>
-      </c>
+      <c r="A60" s="0"/>
+      <c r="B60" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="G60" s="0"/>
       <c r="H60" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>184</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="I60" s="11" t="n">
+        <v>860010372006</v>
+      </c>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D62" s="2" t="n">
+      <c r="A62" s="0"/>
+      <c r="B62" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F62" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="0"/>
+      <c r="F62" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="D63" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F63" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1" t="n">
-        <v>180</v>
+      <c r="F64" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>330</v>
+        <v>6</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1" t="n">
-        <v>390</v>
+        <v>2</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F67" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>209</v>
+        <v>4</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F69" s="1" t="n">
-        <v>470</v>
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="I71" s="11" t="n">
+        <v>860010372006</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I74" s="8" t="n">
+        <v>744115</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>226</v>
+        <v>286</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" s="2" t="n">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="F77" s="1" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>237</v>
+        <v>293</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>246</v>
+        <v>301</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="D82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D84" s="2" t="n">
+      <c r="F85" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>268</v>
+      <c r="F89" s="1" t="n">
+        <v>390</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>272</v>
+        <v>337</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>273</v>
+        <v>340</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>277</v>
+        <v>6</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>244</v>
+        <v>1</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>470</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>283</v>
+        <v>3</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>470</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>291</v>
+        <v>347</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>297</v>
+        <v>347</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>359</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>372</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>329</v>
+        <v>377</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D106" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>384</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>351</v>
+        <v>389</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>371</v>
+        <v>401</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>376</v>
+        <v>407</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="H113" s="5" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>390</v>
+        <v>418</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>395</v>
+        <v>366</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>400</v>
+        <v>430</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>404</v>
-      </c>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <v>97</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>302</v>
+        <v>438</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>412</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="J120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>416</v>
+        <v>444</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>302</v>
+        <v>447</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="K122" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>453</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>432</v>
+        <v>458</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>442</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>302</v>
+        <v>469</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>302</v>
+        <v>433</v>
       </c>
       <c r="D128" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>453</v>
+        <v>480</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>363</v>
+        <v>447</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>484</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>302</v>
+        <v>433</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H131" s="13" t="s">
-        <v>460</v>
+        <v>487</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>488</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>302</v>
+        <v>478</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="I132" s="6" t="s">
-        <v>465</v>
+        <v>491</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="D133" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>469</v>
+        <v>496</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>157</v>
+        <v>501</v>
       </c>
       <c r="D134" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="D135" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="D136" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="J136" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="K136" s="5" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="D137" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="D138" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
+        <v>520</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="D141" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="I141" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="J141" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="D142" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>502</v>
+        <v>1</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="J142" s="5"/>
+        <v>534</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="D143" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>505</v>
+        <v>1</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="J143" s="5"/>
+        <v>538</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="D144" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>508</v>
+        <v>1</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="J144" s="5"/>
+        <v>542</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D145" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="K145" s="8" t="s">
-        <v>515</v>
-      </c>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>518</v>
+        <v>545</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>547</v>
       </c>
       <c r="J146" s="5"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D147" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>520</v>
+        <v>548</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="J147" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="K147" s="5" t="s">
-        <v>523</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="J147" s="5"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-      <c r="L148" s="3"/>
+      <c r="D148" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="J148" s="5"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="D149" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>525</v>
+        <v>8</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>554</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>527</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="J149" s="5"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="D150" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D151" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D152" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D151" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D152" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>540</v>
+      <c r="F152" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>566</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>541</v>
+        <v>567</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D153" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="I153" s="5" t="n">
-        <v>9282486804791</v>
-      </c>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>536</v>
+        <v>571</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="D156" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H156" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="I156" s="5" t="s">
-        <v>556</v>
+        <v>581</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="D157" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>536</v>
+        <v>590</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="I158" s="5" t="n">
+        <v>9282486804791</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="D159" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="H159" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="I159" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="J159" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="K159" s="5" t="s">
-        <v>571</v>
+        <v>594</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="D160" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="I160" s="1" t="n">
-        <v>9032646824</v>
-      </c>
-      <c r="J160" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="K160" s="5" t="s">
-        <v>576</v>
+        <v>596</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-      <c r="L161" s="3"/>
+      <c r="A161" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="I161" s="5" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="D162" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I163" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="D163" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="H163" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="I163" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="J163" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="K163" s="5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="I165" s="1" t="n">
+        <v>9032646824</v>
+      </c>
+      <c r="J165" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="K165" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D168" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D165" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="I165" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="J165" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="K165" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D166" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="H166" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="I166" s="5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+      <c r="B169" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="I169" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="J169" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="K169" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0"/>
+      <c r="B170" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D170" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="E170" s="0"/>
+      <c r="F170" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="G170" s="0"/>
+      <c r="H170" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="I170" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="J170" s="0"/>
+      <c r="K170" s="0"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D167" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="I167" s="6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+      <c r="B171" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D168" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="H168" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="I168" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
-      <c r="L169" s="3"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="D170" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="I170" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="D171" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="K171" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-      <c r="L172" s="3"/>
+      <c r="B172" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="D173" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="I173" s="8" t="s">
-        <v>623</v>
-      </c>
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="I174" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="I177" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D174" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="H174" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="I174" s="6" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+      <c r="B178" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H178" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="I178" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="I175" s="6" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+      <c r="B179" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D176" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="H176" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="I176" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="177" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="14" t="n">
+      <c r="B180" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="181" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="15" t="n">
         <v>149</v>
       </c>
-      <c r="B177" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="C177" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="D177" s="2" t="n">
+      <c r="B181" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="D181" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E177" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F177" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="H177" s="16" t="s">
-        <v>641</v>
-      </c>
-      <c r="I177" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="J177" s="16" t="s">
-        <v>643</v>
-      </c>
-      <c r="K177" s="16" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
-      <c r="L178" s="3"/>
-    </row>
-    <row r="179" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="14" t="n">
+      <c r="E181" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="H181" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="I181" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="J181" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="K181" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="L181" s="0"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="15" t="n">
         <v>89</v>
       </c>
-      <c r="B179" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="C179" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="D179" s="2" t="n">
+      <c r="B183" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="D183" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E179" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F179" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="H179" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="I179" s="14" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D180" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="H180" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="I180" s="5" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+      <c r="E183" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="H183" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="I183" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="L183" s="0"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D184" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="D181" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="H181" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="I181" s="5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D182" s="2" t="n">
+      <c r="B185" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D186" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F182" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="H182" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="I182" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="J182" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="K182" s="6" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+      <c r="F186" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="J186" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="K186" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D183" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="H183" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="I183" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+      <c r="B187" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="I187" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="D184" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H184" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="I184" s="6" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D185" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="H185" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="I185" s="6" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
-      <c r="L186" s="3"/>
+      <c r="B188" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="I188" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D189" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="I192" s="18" t="n">
+        <v>830207670409</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>726</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
